--- a/biology/Médecine/Dominique-Jean_Larrey/Dominique-Jean_Larrey.xlsx
+++ b/biology/Médecine/Dominique-Jean_Larrey/Dominique-Jean_Larrey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique-Jean Larrey, baron Larrey et de l'Empire, est un médecin et chirurgien militaire français, père de la médecine d'urgence, né le 8 juillet 1766 à Beaudéan dans la province de Bigorre de l'Ancien régime, actuellement dans les Hautes-Pyrénées et mort à Lyon le 25 juillet 1842. Chirurgien en chef de la Grande Armée, Dominique Larrey suivit Napoléon Ier dans toutes ses campagnes. Il fut un précurseur en matière de secours aux blessés sur les champs de bataille, pratiquant les soins sur le terrain le plus tôt possible, grâce à des ambulances chirurgicales mobiles.
 </t>
@@ -513,26 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Fils de Jean Larrey, maître cordonnier, il est né dans le petit village de Beaudéan dans les Hautes-Pyrénées. Sa maison natale existe toujours dans la rue principale du village, et elle est devenue un musée[1]. Orphelin à treize ans, Larrey est élevé par son oncle Alexis Larrey, chirurgien-major de l'hôpital de La Grave de Toulouse et fondateur du premier hôpital militaire de cette ville[2]. Après six années d'apprentissage, il se rend à Paris pour y étudier la médecine auprès de Pierre Joseph Desault, chirurgien en chef de l'Hôtel-Dieu. Le 13 ventose de l'an II[3], il épouse Marie-Élisabeth Laville-Leroux, peintre.
-Carrière de chirurgien militaire
-Larrey commence sa carrière en 1787 comme chirurgien de la marine royale sur la frégate la Vigilante en mer d'Irlande. De retour à Paris dès l'année suivante, il s'y lie avec Corvisart et Bichat, et avec Sabatier, chirurgien en chef des Invalides, hôpital où il obtient sur concours un poste d'aide-major.
-Première étape d'une carrière qui le conduira sur tous les champs de bataille d'Europe, de l'Espagne à la Russie, et jusque dans les déserts d'Égypte et de Syrie, il est en 1792 chirurgien aide-major (correspondant au grade de capitaine de l'armée)[4] à l'armée du Rhin. Chirurgien de première classe ou chirugien-major (chef de bataillon) en 1792, dans l'armée du maréchal Luckner, il crée des ambulances volantes à Mayence[5], à la tête desquelles il court enlever les blessés sous le feu des batteries ennemies. Il est ensuite chirurgien principal (lieutenant-colonel) à l'armée de Custine, puis chirurgien en chef (colonel) à et de la 14e armée républicaine en 1794. Il organise l’École de chirurgie et d'anatomie de Toulon, et devient professeur à l'École militaire de santé du Val-de-Grâce en 1796. Il est chargé de l'inspection des camps et des hôpitaux de l'armée d'Italie (1796), puis nommé chirurgien en chef à l'armée d'Égypte[6].
-À la bataille d'Aboukir, il sauve le général Fugière, sous le canon de l'ennemi, d'une blessure à l'épaule[7]. Au siège d'Alexandrie[Lequel ?], Larrey trouva le moyen de faire de la chair de cheval une nourriture saine pour les blessés, et fit tuer pour cet usage ses propres chevaux. Il embaume Kléber, assassiné au Caire le 14 juin 1800.
-En 1802, il est chirurgien en chef de la Garde des consuls. Il soutient sa thèse de médecine en mai 1803, conformément aux nouvelles dispositions de la réorganisation du monde médical : Dissertation sur les amputations des membres à la suite des coups de feu dédicacée au général de Villemanzy[8].
-En 1804, Larrey reçoit une des premières croix d'officier de la Légion d'honneur de la main du premier consul, qui lui dit : C'est une récompense bien méritée. Inspecteur général du service de santé des armées (général de brigade), en 1805, et chirurgien en chef de la Garde impériale, il est créé baron d'Empire en 1809, sur le champ de la bataille de Wagram, et inspecteur général du service de santé militaire (général de division) en 1810[9]. Il fait toutes les campagnes du Premier Empire en qualité de chirurgien en chef de la Garde impériale[10] puis de chirurgien en chef de la Grande Armée (12 février 1812). En 1813, il est nommé chirurgien en chef de l'Hôpital militaire du Gros-Caillou, sis 106 rue Saint-Dominique, à Paris. Il prend la défense des conscrits blessés à la main et accusés de se mutiler volontairement, ce qui lui valut une haine farouche de Soult[11]. En août 1814, il est nommé inspecteur général du service de santé des armées et chirurgien en chef de l'hôpital de la Maison militaire du roi.
-Blessé à la bataille de Waterloo[12], prisonnier des Prussiens, il est sur le point d'être fusillé à cause de sa ressemblance avec Napoléon[13], mais est relâché sur ordre de Blücher, dont il avait soigné le fils. La Restauration le tient à l'écart mais il est rappelé par la monarchie de Juillet.
-Il fait partie de la première promotion des membres de l'Académie royale de médecine, par ordonnance de Louis XVIII en 1820. Sa statue en marbre blanc, majestueuse et monumentale, sculptée par Pierre-Alfred Robinet, siège toujours dans le hall d'entrée de l'Académie de médecine à Paris, rue Bonaparte. En 1829, il est élu membre de l'Institut, à l'Académie des sciences.
-Il a appartenu à la Franc-Maçonnerie[14].
-Dans ses dernières années, membre du Conseil de santé des armées, il sollicite en 1842 une inspection médicale en Algérie. Il tombe malade en Afrique et succombe à Lyon, huit jours plus tard, le 25 juillet 1842. Son corps, transporté à Paris, est inhumé le 6 août au cimetière du Père-Lachaise (37e division).
-Plusieurs discours sont prononcés sur sa tombe. Gilbert Breschet, membre de l'Académie des sciences, énumère ses travaux scientifiques en chirurgie, en médecine, en hygiène publique[15].
-Le 15 décembre 1992, ses restes sont transférés de sa tombe du cimetière du Père-Lachaise à l'avant dernière place disponible dans le Caveau des Gouverneurs aux Invalides, et une petite urne contenant un morceau d'intestin déposée dans une vitrine de la salle de la bibliothèque de l'Académie nationale de médecine.
-Médecin du Premier Empire
-Il reste la figure médicale la plus célèbre du Premier Empire. À la bataille de la Moskova, il ampute en une journée pas moins de 200 blessés[17]. Il était d'ailleurs considéré comme un bon chirurgien, à une époque où l'anesthésie n'existait pas, car il était capable d'amputer un membre en moins d'une minute. L'amputation était à l'époque la seule asepsie efficace, en l'absence d'antibiotiques, découverts bien plus tard.
-Larrey serait à l'origine de la mise en place au sein des armées françaises du système des « ambulances volantes » dans lesquelles il embarquait indifféremment amis et ennemis, afin de les soigner sans faire de distinction ni de nationalité, ni de grade, ce qui lui valut l'estime des officiers et généraux des armées ennemies[18].
-Larrey est aussi connu dans le domaine de l'asticothérapie qu'il a utilisée lors de la campagne égyptienne en Syrie. Cette technique datant de l'antiquité consiste à déposer sur des plaies infectées une certaine espèce d'asticot qui se nourrit des chairs infectées, les assainissant ainsi.
-Le 1er octobre 1811, avec l'aide de quatre autres médecins, le baron Larrey réalise une mastectomie sur l'auteure anglaise Frances Burney (épouse du général Alexandre d'Arblay). Cette dernière, consciente pendant l'opération, raconte quelques mois après dans une lettre adressée à sa sœur les différents gestes des médecins lors de sa mastectomie[19].
-Il acquiert en 1830 une propriété à Bièvres, qu'il transmit à son fils Hippolyte (1808-1895), médecin-chef de l'armée et chirurgien de Napoléon III. Il laissa des mémoires d'un très grand intérêt, rarissimes en édition originale et devenus rares en réédition.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Jean Larrey, maître cordonnier, il est né dans le petit village de Beaudéan dans les Hautes-Pyrénées. Sa maison natale existe toujours dans la rue principale du village, et elle est devenue un musée. Orphelin à treize ans, Larrey est élevé par son oncle Alexis Larrey, chirurgien-major de l'hôpital de La Grave de Toulouse et fondateur du premier hôpital militaire de cette ville. Après six années d'apprentissage, il se rend à Paris pour y étudier la médecine auprès de Pierre Joseph Desault, chirurgien en chef de l'Hôtel-Dieu. Le 13 ventose de l'an II, il épouse Marie-Élisabeth Laville-Leroux, peintre.
 </t>
         </is>
       </c>
@@ -558,16 +557,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Postérité</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Val-de-Grâce a fait élever à Larrey une statue dont l'inauguration a eu lieu en août 1850.
-Le nom de Larrey est inscrit sur la 30e colonne du pilier sud de l'arc de triomphe de l'Étoile à Paris.
-Il existe une rue Larrey à Paris, dans le 5e arrondissement, à Brienne-le-Château (Aube), où il a joué une part active lors de la Campagne de France en 1814, et à Tarbes (Hautes-Pyrénées, son département de naissance) où une statue a aussi été érigée en son honneur. À Toulouse, portent aussi le nom de Larrey deux hôpitaux : l'ancien hôpital militaire, fondé par son oncle Alexis Larrey et aujourd'hui démoli, situé sur le quai Saint-Pierre, entre Capitole et Garonne, et le nouvel hôpital militaire Larrey, inauguré sur la colline de Pech-David en 1984 et nommé d'après son fils Hippolyte, qui est utilisé aujourd'hui par le CHU qui l'a racheté en 2000[2].
-À Versailles, le Grand Commun abrita à partir de 1832 un hôpital militaire devenu ensuite hôpital militaire d'instruction des armées Dominique Larrey et qui ferma en 1995[20],[21].
-Certains de ses descendants conservent dans une propriété familiale poitevine - non ouverte au public - du matériel chirurgical lui ayant appartenu.
+          <t>Carrière de chirurgien militaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Larrey commence sa carrière en 1787 comme chirurgien de la marine royale sur la frégate la Vigilante en mer d'Irlande. De retour à Paris dès l'année suivante, il s'y lie avec Corvisart et Bichat, et avec Sabatier, chirurgien en chef des Invalides, hôpital où il obtient sur concours un poste d'aide-major.
+Première étape d'une carrière qui le conduira sur tous les champs de bataille d'Europe, de l'Espagne à la Russie, et jusque dans les déserts d'Égypte et de Syrie, il est en 1792 chirurgien aide-major (correspondant au grade de capitaine de l'armée) à l'armée du Rhin. Chirurgien de première classe ou chirugien-major (chef de bataillon) en 1792, dans l'armée du maréchal Luckner, il crée des ambulances volantes à Mayence, à la tête desquelles il court enlever les blessés sous le feu des batteries ennemies. Il est ensuite chirurgien principal (lieutenant-colonel) à l'armée de Custine, puis chirurgien en chef (colonel) à et de la 14e armée républicaine en 1794. Il organise l’École de chirurgie et d'anatomie de Toulon, et devient professeur à l'École militaire de santé du Val-de-Grâce en 1796. Il est chargé de l'inspection des camps et des hôpitaux de l'armée d'Italie (1796), puis nommé chirurgien en chef à l'armée d'Égypte.
+À la bataille d'Aboukir, il sauve le général Fugière, sous le canon de l'ennemi, d'une blessure à l'épaule. Au siège d'Alexandrie[Lequel ?], Larrey trouva le moyen de faire de la chair de cheval une nourriture saine pour les blessés, et fit tuer pour cet usage ses propres chevaux. Il embaume Kléber, assassiné au Caire le 14 juin 1800.
+En 1802, il est chirurgien en chef de la Garde des consuls. Il soutient sa thèse de médecine en mai 1803, conformément aux nouvelles dispositions de la réorganisation du monde médical : Dissertation sur les amputations des membres à la suite des coups de feu dédicacée au général de Villemanzy.
+En 1804, Larrey reçoit une des premières croix d'officier de la Légion d'honneur de la main du premier consul, qui lui dit : C'est une récompense bien méritée. Inspecteur général du service de santé des armées (général de brigade), en 1805, et chirurgien en chef de la Garde impériale, il est créé baron d'Empire en 1809, sur le champ de la bataille de Wagram, et inspecteur général du service de santé militaire (général de division) en 1810. Il fait toutes les campagnes du Premier Empire en qualité de chirurgien en chef de la Garde impériale puis de chirurgien en chef de la Grande Armée (12 février 1812). En 1813, il est nommé chirurgien en chef de l'Hôpital militaire du Gros-Caillou, sis 106 rue Saint-Dominique, à Paris. Il prend la défense des conscrits blessés à la main et accusés de se mutiler volontairement, ce qui lui valut une haine farouche de Soult. En août 1814, il est nommé inspecteur général du service de santé des armées et chirurgien en chef de l'hôpital de la Maison militaire du roi.
+Blessé à la bataille de Waterloo, prisonnier des Prussiens, il est sur le point d'être fusillé à cause de sa ressemblance avec Napoléon, mais est relâché sur ordre de Blücher, dont il avait soigné le fils. La Restauration le tient à l'écart mais il est rappelé par la monarchie de Juillet.
+Il fait partie de la première promotion des membres de l'Académie royale de médecine, par ordonnance de Louis XVIII en 1820. Sa statue en marbre blanc, majestueuse et monumentale, sculptée par Pierre-Alfred Robinet, siège toujours dans le hall d'entrée de l'Académie de médecine à Paris, rue Bonaparte. En 1829, il est élu membre de l'Institut, à l'Académie des sciences.
+Il a appartenu à la Franc-Maçonnerie.
+Dans ses dernières années, membre du Conseil de santé des armées, il sollicite en 1842 une inspection médicale en Algérie. Il tombe malade en Afrique et succombe à Lyon, huit jours plus tard, le 25 juillet 1842. Son corps, transporté à Paris, est inhumé le 6 août au cimetière du Père-Lachaise (37e division).
+Plusieurs discours sont prononcés sur sa tombe. Gilbert Breschet, membre de l'Académie des sciences, énumère ses travaux scientifiques en chirurgie, en médecine, en hygiène publique.
+Le 15 décembre 1992, ses restes sont transférés de sa tombe du cimetière du Père-Lachaise à l'avant dernière place disponible dans le Caveau des Gouverneurs aux Invalides, et une petite urne contenant un morceau d'intestin déposée dans une vitrine de la salle de la bibliothèque de l'Académie nationale de médecine.
 </t>
         </is>
       </c>
@@ -593,10 +604,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médecin du Premier Empire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il reste la figure médicale la plus célèbre du Premier Empire. À la bataille de la Moskova, il ampute en une journée pas moins de 200 blessés. Il était d'ailleurs considéré comme un bon chirurgien, à une époque où l'anesthésie n'existait pas, car il était capable d'amputer un membre en moins d'une minute. L'amputation était à l'époque la seule asepsie efficace, en l'absence d'antibiotiques, découverts bien plus tard.
+Larrey serait à l'origine de la mise en place au sein des armées françaises du système des « ambulances volantes » dans lesquelles il embarquait indifféremment amis et ennemis, afin de les soigner sans faire de distinction ni de nationalité, ni de grade, ce qui lui valut l'estime des officiers et généraux des armées ennemies.
+Larrey est aussi connu dans le domaine de l'asticothérapie qu'il a utilisée lors de la campagne égyptienne en Syrie. Cette technique datant de l'antiquité consiste à déposer sur des plaies infectées une certaine espèce d'asticot qui se nourrit des chairs infectées, les assainissant ainsi.
+Le 1er octobre 1811, avec l'aide de quatre autres médecins, le baron Larrey réalise une mastectomie sur l'auteure anglaise Frances Burney (épouse du général Alexandre d'Arblay). Cette dernière, consciente pendant l'opération, raconte quelques mois après dans une lettre adressée à sa sœur les différents gestes des médecins lors de sa mastectomie.
+Il acquiert en 1830 une propriété à Bièvres, qu'il transmit à son fils Hippolyte (1808-1895), médecin-chef de l'armée et chirurgien de Napoléon III. Il laissa des mémoires d'un très grand intérêt, rarissimes en édition originale et devenus rares en réédition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dominique-Jean_Larrey</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique-Jean_Larrey</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Val-de-Grâce a fait élever à Larrey une statue dont l'inauguration a eu lieu en août 1850.
+Le nom de Larrey est inscrit sur la 30e colonne du pilier sud de l'arc de triomphe de l'Étoile à Paris.
+Il existe une rue Larrey à Paris, dans le 5e arrondissement, à Brienne-le-Château (Aube), où il a joué une part active lors de la Campagne de France en 1814, et à Tarbes (Hautes-Pyrénées, son département de naissance) où une statue a aussi été érigée en son honneur. À Toulouse, portent aussi le nom de Larrey deux hôpitaux : l'ancien hôpital militaire, fondé par son oncle Alexis Larrey et aujourd'hui démoli, situé sur le quai Saint-Pierre, entre Capitole et Garonne, et le nouvel hôpital militaire Larrey, inauguré sur la colline de Pech-David en 1984 et nommé d'après son fils Hippolyte, qui est utilisé aujourd'hui par le CHU qui l'a racheté en 2000.
+À Versailles, le Grand Commun abrita à partir de 1832 un hôpital militaire devenu ensuite hôpital militaire d'instruction des armées Dominique Larrey et qui ferma en 1995,.
+Certains de ses descendants conservent dans une propriété familiale poitevine - non ouverte au public - du matériel chirurgical lui ayant appartenu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dominique-Jean_Larrey</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique-Jean_Larrey</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Mémoire sur l'ophtalmie régnante en Égypte, 17 p. in-4°, Caire, Imprimerie nationale, 1800.
 Dissertation sur les amputations des membres à la suite des coups de feu, [thèse de médecine de Paris no 1], 1803, Texte intégral.
